--- a/WebRoot/docs/busTraceTemplate.xlsx
+++ b/WebRoot/docs/busTraceTemplate.xlsx
@@ -3,28 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tj2539977\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="750" yWindow="525" windowWidth="19095" windowHeight="8100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12705" windowHeight="2655"/>
   </bookViews>
   <sheets>
     <sheet name="Key Parts" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t xml:space="preserve">  物料编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  SAP Material</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -46,6 +38,10 @@
   </si>
   <si>
     <t>BYD P/N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Item No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -64,6 +60,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -71,6 +68,7 @@
       <sz val="12"/>
       <color indexed="17"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -507,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -520,25 +518,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/WebRoot/docs/busTraceTemplate.xlsx
+++ b/WebRoot/docs/busTraceTemplate.xlsx
@@ -3,14 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tj2539977\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12705" windowHeight="2655"/>
   </bookViews>
   <sheets>
-    <sheet name="Key Parts" sheetId="1" r:id="rId1"/>
+    <sheet name="Bus Trace" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -33,15 +37,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Station</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BYD P/N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> Item No.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Station Code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,7 +510,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -518,7 +522,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -527,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -536,7 +540,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
